--- a/config_hlw/act_035_jhs_config.xlsx
+++ b/config_hlw/act_035_jhs_config.xlsx
@@ -68,27 +68,6 @@
     <t>"ty_icon_jb_18y","ty_icon_jb_18y",</t>
   </si>
   <si>
-    <t>10796,10797,10798,</t>
-  </si>
-  <si>
-    <t>10799,10800,10801,</t>
-  </si>
-  <si>
-    <t>10802,10803,10804,</t>
-  </si>
-  <si>
-    <t>10805,10806,10807,</t>
-  </si>
-  <si>
-    <t>10808,10809,10810,</t>
-  </si>
-  <si>
-    <t>10811,10812,10813,</t>
-  </si>
-  <si>
-    <t>10814,10815,10816,</t>
-  </si>
-  <si>
     <t>"2498万","74.9万",</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,6 +149,34 @@
   </si>
   <si>
     <t>"38万","13.1万",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10796,10798,10797,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10799,10801,10800,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10802,10804,10803,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10805,10807,10806,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10808,10810,10809,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10811,10813,10812,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10814,10816,10815,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +528,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,16 +573,16 @@
         <v>2498</v>
       </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -589,16 +596,16 @@
         <v>998</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -612,16 +619,16 @@
         <v>498</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -635,16 +642,16 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -658,16 +665,16 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -681,16 +688,16 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -704,16 +711,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>

--- a/config_hlw/act_035_jhs_config.xlsx
+++ b/config_hlw/act_035_jhs_config.xlsx
@@ -152,31 +152,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10799,10801,10800,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10802,10804,10803,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10805,10807,10806,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10808,10810,10809,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10811,10813,10812,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10814,10816,10815,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10796,10798,10797,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10799,10801,10800,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10802,10804,10803,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10805,10807,10806,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10808,10810,10809,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10811,10813,10812,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10814,10816,10815,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
         <v>2498</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -596,7 +596,7 @@
         <v>998</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -619,7 +619,7 @@
         <v>498</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -642,7 +642,7 @@
         <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -665,7 +665,7 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>34</v>
